--- a/src/assets/contact.xlsx
+++ b/src/assets/contact.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MortezaSefidi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyJobs\WeibeSMS.UI\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,10 +71,10 @@
     <t>Ghasem</t>
   </si>
   <si>
-    <t>Lore</t>
-  </si>
-  <si>
     <t>ziba</t>
+  </si>
+  <si>
+    <t>haddadi</t>
   </si>
 </sst>
 </file>
@@ -406,12 +406,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -521,10 +521,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>9124808805</v>
+        <v>9123006008</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
